--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Bgn-Tlr4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Bgn-Tlr4.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.8838864715712</v>
+        <v>51.10859366666667</v>
       </c>
       <c r="H2">
-        <v>20.8838864715712</v>
+        <v>153.325781</v>
       </c>
       <c r="I2">
-        <v>0.01208272844004786</v>
+        <v>0.02866730932766026</v>
       </c>
       <c r="J2">
-        <v>0.01208272844004786</v>
+        <v>0.02866730932766026</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.03289190731455</v>
+        <v>4.752338666666668</v>
       </c>
       <c r="N2">
-        <v>3.03289190731455</v>
+        <v>14.257016</v>
       </c>
       <c r="O2">
-        <v>0.02858731215378319</v>
+        <v>0.04151639666945049</v>
       </c>
       <c r="P2">
-        <v>0.02858731215378319</v>
+        <v>0.04151639666945049</v>
       </c>
       <c r="Q2">
-        <v>63.3385702729041</v>
+        <v>242.8853458810552</v>
       </c>
       <c r="R2">
-        <v>63.3385702729041</v>
+        <v>2185.968112929496</v>
       </c>
       <c r="S2">
-        <v>0.000345412729585042</v>
+        <v>0.001190163385492981</v>
       </c>
       <c r="T2">
-        <v>0.000345412729585042</v>
+        <v>0.001190163385492981</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.8838864715712</v>
+        <v>51.10859366666667</v>
       </c>
       <c r="H3">
-        <v>20.8838864715712</v>
+        <v>153.325781</v>
       </c>
       <c r="I3">
-        <v>0.01208272844004786</v>
+        <v>0.02866730932766026</v>
       </c>
       <c r="J3">
-        <v>0.01208272844004786</v>
+        <v>0.02866730932766026</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.09443306800975</v>
+        <v>7.095953333333333</v>
       </c>
       <c r="N3">
-        <v>7.09443306800975</v>
+        <v>21.28786</v>
       </c>
       <c r="O3">
-        <v>0.06687042560936295</v>
+        <v>0.06199019766855336</v>
       </c>
       <c r="P3">
-        <v>0.06687042560936295</v>
+        <v>0.06199019766855336</v>
       </c>
       <c r="Q3">
-        <v>148.1593347724762</v>
+        <v>362.6641955909623</v>
       </c>
       <c r="R3">
-        <v>148.1593347724762</v>
+        <v>3263.97776031866</v>
       </c>
       <c r="S3">
-        <v>0.0008079771933083544</v>
+        <v>0.001777092171847223</v>
       </c>
       <c r="T3">
-        <v>0.0008079771933083544</v>
+        <v>0.001777092171847223</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.8838864715712</v>
+        <v>51.10859366666667</v>
       </c>
       <c r="H4">
-        <v>20.8838864715712</v>
+        <v>153.325781</v>
       </c>
       <c r="I4">
-        <v>0.01208272844004786</v>
+        <v>0.02866730932766026</v>
       </c>
       <c r="J4">
-        <v>0.01208272844004786</v>
+        <v>0.02866730932766026</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.7615038984025</v>
+        <v>27.34521433333333</v>
       </c>
       <c r="N4">
-        <v>23.7615038984025</v>
+        <v>82.03564300000001</v>
       </c>
       <c r="O4">
-        <v>0.2239702402676228</v>
+        <v>0.238887597223811</v>
       </c>
       <c r="P4">
-        <v>0.2239702402676228</v>
+        <v>0.238887597223811</v>
       </c>
       <c r="Q4">
-        <v>496.2325498080342</v>
+        <v>1397.575448090243</v>
       </c>
       <c r="R4">
-        <v>496.2325498080342</v>
+        <v>12578.17903281218</v>
       </c>
       <c r="S4">
-        <v>0.002706171591805958</v>
+        <v>0.006848264644156502</v>
       </c>
       <c r="T4">
-        <v>0.002706171591805958</v>
+        <v>0.006848264644156502</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.8838864715712</v>
+        <v>51.10859366666667</v>
       </c>
       <c r="H5">
-        <v>20.8838864715712</v>
+        <v>153.325781</v>
       </c>
       <c r="I5">
-        <v>0.01208272844004786</v>
+        <v>0.02866730932766026</v>
       </c>
       <c r="J5">
-        <v>0.01208272844004786</v>
+        <v>0.02866730932766026</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.7209827432616</v>
+        <v>19.73820233333333</v>
       </c>
       <c r="N5">
-        <v>19.7209827432616</v>
+        <v>59.214607</v>
       </c>
       <c r="O5">
-        <v>0.1858852563460386</v>
+        <v>0.1724327946912327</v>
       </c>
       <c r="P5">
-        <v>0.1858852563460386</v>
+        <v>0.1724327946912327</v>
       </c>
       <c r="Q5">
-        <v>411.85076471809</v>
+        <v>1008.791762764785</v>
       </c>
       <c r="R5">
-        <v>411.85076471809</v>
+        <v>9079.125864883068</v>
       </c>
       <c r="S5">
-        <v>0.002246001073437867</v>
+        <v>0.004943184263646499</v>
       </c>
       <c r="T5">
-        <v>0.002246001073437867</v>
+        <v>0.004943184263646499</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.8838864715712</v>
+        <v>51.10859366666667</v>
       </c>
       <c r="H6">
-        <v>20.8838864715712</v>
+        <v>153.325781</v>
       </c>
       <c r="I6">
-        <v>0.01208272844004786</v>
+        <v>0.02866730932766026</v>
       </c>
       <c r="J6">
-        <v>0.01208272844004786</v>
+        <v>0.02866730932766026</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>49.0763680599753</v>
+        <v>51.532109</v>
       </c>
       <c r="N6">
-        <v>49.0763680599753</v>
+        <v>154.596327</v>
       </c>
       <c r="O6">
-        <v>0.4625820820454858</v>
+        <v>0.4501841363839443</v>
       </c>
       <c r="P6">
-        <v>0.4625820820454858</v>
+        <v>0.4501841363839443</v>
       </c>
       <c r="Q6">
-        <v>1024.905299001567</v>
+        <v>2633.733619667376</v>
       </c>
       <c r="R6">
-        <v>1024.905299001567</v>
+        <v>23703.60257700639</v>
       </c>
       <c r="S6">
-        <v>0.005589253678587544</v>
+        <v>0.01290556789212412</v>
       </c>
       <c r="T6">
-        <v>0.005589253678587544</v>
+        <v>0.01290556789212412</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.8838864715712</v>
+        <v>51.10859366666667</v>
       </c>
       <c r="H7">
-        <v>20.8838864715712</v>
+        <v>153.325781</v>
       </c>
       <c r="I7">
-        <v>0.01208272844004786</v>
+        <v>0.02866730932766026</v>
       </c>
       <c r="J7">
-        <v>0.01208272844004786</v>
+        <v>0.02866730932766026</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.40605771140451</v>
+        <v>4.005140333333333</v>
       </c>
       <c r="N7">
-        <v>3.40605771140451</v>
+        <v>12.015421</v>
       </c>
       <c r="O7">
-        <v>0.03210468357770675</v>
+        <v>0.03498887736300817</v>
       </c>
       <c r="P7">
-        <v>0.03210468357770675</v>
+        <v>0.03498887736300817</v>
       </c>
       <c r="Q7">
-        <v>71.1317225605914</v>
+        <v>204.6970898743112</v>
       </c>
       <c r="R7">
-        <v>71.1317225605914</v>
+        <v>1842.273808868801</v>
       </c>
       <c r="S7">
-        <v>0.0003879121733230948</v>
+        <v>0.001003036970392925</v>
       </c>
       <c r="T7">
-        <v>0.0003879121733230948</v>
+        <v>0.001003036970392925</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1522.98205624632</v>
+        <v>1523.209716666667</v>
       </c>
       <c r="H8">
-        <v>1522.98205624632</v>
+        <v>4569.62915</v>
       </c>
       <c r="I8">
-        <v>0.8811472246672065</v>
+        <v>0.854383206146807</v>
       </c>
       <c r="J8">
-        <v>0.8811472246672065</v>
+        <v>0.854383206146807</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.03289190731455</v>
+        <v>4.752338666666668</v>
       </c>
       <c r="N8">
-        <v>3.03289190731455</v>
+        <v>14.257016</v>
       </c>
       <c r="O8">
-        <v>0.02858731215378319</v>
+        <v>0.04151639666945049</v>
       </c>
       <c r="P8">
-        <v>0.02858731215378319</v>
+        <v>0.04151639666945049</v>
       </c>
       <c r="Q8">
-        <v>4619.039953374737</v>
+        <v>7238.808433957379</v>
       </c>
       <c r="R8">
-        <v>4619.039953374737</v>
+        <v>65149.27590561641</v>
       </c>
       <c r="S8">
-        <v>0.02518963076500116</v>
+        <v>0.03547091209410772</v>
       </c>
       <c r="T8">
-        <v>0.02518963076500116</v>
+        <v>0.03547091209410772</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1522.98205624632</v>
+        <v>1523.209716666667</v>
       </c>
       <c r="H9">
-        <v>1522.98205624632</v>
+        <v>4569.62915</v>
       </c>
       <c r="I9">
-        <v>0.8811472246672065</v>
+        <v>0.854383206146807</v>
       </c>
       <c r="J9">
-        <v>0.8811472246672065</v>
+        <v>0.854383206146807</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.09443306800975</v>
+        <v>7.095953333333333</v>
       </c>
       <c r="N9">
-        <v>7.09443306800975</v>
+        <v>21.28786</v>
       </c>
       <c r="O9">
-        <v>0.06687042560936295</v>
+        <v>0.06199019766855336</v>
       </c>
       <c r="P9">
-        <v>0.06687042560936295</v>
+        <v>0.06199019766855336</v>
       </c>
       <c r="Q9">
-        <v>10804.69426181938</v>
+        <v>10808.62506634655</v>
       </c>
       <c r="R9">
-        <v>10804.69426181938</v>
+        <v>97277.62559711898</v>
       </c>
       <c r="S9">
-        <v>0.05892268993800505</v>
+        <v>0.05296338383373294</v>
       </c>
       <c r="T9">
-        <v>0.05892268993800505</v>
+        <v>0.05296338383373294</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1522.98205624632</v>
+        <v>1523.209716666667</v>
       </c>
       <c r="H10">
-        <v>1522.98205624632</v>
+        <v>4569.62915</v>
       </c>
       <c r="I10">
-        <v>0.8811472246672065</v>
+        <v>0.854383206146807</v>
       </c>
       <c r="J10">
-        <v>0.8811472246672065</v>
+        <v>0.854383206146807</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.7615038984025</v>
+        <v>27.34521433333333</v>
       </c>
       <c r="N10">
-        <v>23.7615038984025</v>
+        <v>82.03564300000001</v>
       </c>
       <c r="O10">
-        <v>0.2239702402676228</v>
+        <v>0.238887597223811</v>
       </c>
       <c r="P10">
-        <v>0.2239702402676228</v>
+        <v>0.238887597223811</v>
       </c>
       <c r="Q10">
-        <v>36188.34406669399</v>
+        <v>41652.49617686593</v>
       </c>
       <c r="R10">
-        <v>36188.34406669399</v>
+        <v>374872.4655917935</v>
       </c>
       <c r="S10">
-        <v>0.1973507556198632</v>
+        <v>0.2041015512247867</v>
       </c>
       <c r="T10">
-        <v>0.1973507556198632</v>
+        <v>0.2041015512247867</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1522.98205624632</v>
+        <v>1523.209716666667</v>
       </c>
       <c r="H11">
-        <v>1522.98205624632</v>
+        <v>4569.62915</v>
       </c>
       <c r="I11">
-        <v>0.8811472246672065</v>
+        <v>0.854383206146807</v>
       </c>
       <c r="J11">
-        <v>0.8811472246672065</v>
+        <v>0.854383206146807</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.7209827432616</v>
+        <v>19.73820233333333</v>
       </c>
       <c r="N11">
-        <v>19.7209827432616</v>
+        <v>59.214607</v>
       </c>
       <c r="O11">
-        <v>0.1858852563460386</v>
+        <v>0.1724327946912327</v>
       </c>
       <c r="P11">
-        <v>0.1858852563460386</v>
+        <v>0.1724327946912327</v>
       </c>
       <c r="Q11">
-        <v>30034.70284953075</v>
+        <v>30065.421583666</v>
       </c>
       <c r="R11">
-        <v>30034.70284953075</v>
+        <v>270588.7942529941</v>
       </c>
       <c r="S11">
-        <v>0.1637922777358641</v>
+        <v>0.1473236839731495</v>
       </c>
       <c r="T11">
-        <v>0.1637922777358641</v>
+        <v>0.1473236839731495</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1522.98205624632</v>
+        <v>1523.209716666667</v>
       </c>
       <c r="H12">
-        <v>1522.98205624632</v>
+        <v>4569.62915</v>
       </c>
       <c r="I12">
-        <v>0.8811472246672065</v>
+        <v>0.854383206146807</v>
       </c>
       <c r="J12">
-        <v>0.8811472246672065</v>
+        <v>0.854383206146807</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>49.0763680599753</v>
+        <v>51.532109</v>
       </c>
       <c r="N12">
-        <v>49.0763680599753</v>
+        <v>154.596327</v>
       </c>
       <c r="O12">
-        <v>0.4625820820454858</v>
+        <v>0.4501841363839443</v>
       </c>
       <c r="P12">
-        <v>0.4625820820454858</v>
+        <v>0.4501841363839443</v>
       </c>
       <c r="Q12">
-        <v>74742.42794108241</v>
+        <v>78494.20914912577</v>
       </c>
       <c r="R12">
-        <v>74742.42794108241</v>
+        <v>706447.882342132</v>
       </c>
       <c r="S12">
-        <v>0.4076029177751579</v>
+        <v>0.3846297658001458</v>
       </c>
       <c r="T12">
-        <v>0.4076029177751579</v>
+        <v>0.3846297658001458</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1522.98205624632</v>
+        <v>1523.209716666667</v>
       </c>
       <c r="H13">
-        <v>1522.98205624632</v>
+        <v>4569.62915</v>
       </c>
       <c r="I13">
-        <v>0.8811472246672065</v>
+        <v>0.854383206146807</v>
       </c>
       <c r="J13">
-        <v>0.8811472246672065</v>
+        <v>0.854383206146807</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.40605771140451</v>
+        <v>4.005140333333333</v>
       </c>
       <c r="N13">
-        <v>3.40605771140451</v>
+        <v>12.015421</v>
       </c>
       <c r="O13">
-        <v>0.03210468357770675</v>
+        <v>0.03498887736300817</v>
       </c>
       <c r="P13">
-        <v>0.03210468357770675</v>
+        <v>0.03498887736300817</v>
       </c>
       <c r="Q13">
-        <v>5187.364777008476</v>
+        <v>6100.668672346905</v>
       </c>
       <c r="R13">
-        <v>5187.364777008476</v>
+        <v>54906.01805112215</v>
       </c>
       <c r="S13">
-        <v>0.02828895283331514</v>
+        <v>0.02989390922088436</v>
       </c>
       <c r="T13">
-        <v>0.02828895283331514</v>
+        <v>0.02989390922088436</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.21520509437791</v>
+        <v>1.839165666666666</v>
       </c>
       <c r="H14">
-        <v>1.21520509437791</v>
+        <v>5.517497</v>
       </c>
       <c r="I14">
-        <v>0.0007030776179672626</v>
+        <v>0.001031605984211079</v>
       </c>
       <c r="J14">
-        <v>0.0007030776179672626</v>
+        <v>0.00103160598421108</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.03289190731455</v>
+        <v>4.752338666666668</v>
       </c>
       <c r="N14">
-        <v>3.03289190731455</v>
+        <v>14.257016</v>
       </c>
       <c r="O14">
-        <v>0.02858731215378319</v>
+        <v>0.04151639666945049</v>
       </c>
       <c r="P14">
-        <v>0.02858731215378319</v>
+        <v>0.04151639666945049</v>
       </c>
       <c r="Q14">
-        <v>3.685585696466177</v>
+        <v>8.740338112105778</v>
       </c>
       <c r="R14">
-        <v>3.685585696466177</v>
+        <v>78.663043008952</v>
       </c>
       <c r="S14">
-        <v>2.009909933316846E-05</v>
+        <v>4.282856324708605E-05</v>
       </c>
       <c r="T14">
-        <v>2.009909933316846E-05</v>
+        <v>4.282856324708606E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.21520509437791</v>
+        <v>1.839165666666666</v>
       </c>
       <c r="H15">
-        <v>1.21520509437791</v>
+        <v>5.517497</v>
       </c>
       <c r="I15">
-        <v>0.0007030776179672626</v>
+        <v>0.001031605984211079</v>
       </c>
       <c r="J15">
-        <v>0.0007030776179672626</v>
+        <v>0.00103160598421108</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.09443306800975</v>
+        <v>7.095953333333333</v>
       </c>
       <c r="N15">
-        <v>7.09443306800975</v>
+        <v>21.28786</v>
       </c>
       <c r="O15">
-        <v>0.06687042560936295</v>
+        <v>0.06199019766855336</v>
       </c>
       <c r="P15">
-        <v>0.06687042560936295</v>
+        <v>0.06199019766855336</v>
       </c>
       <c r="Q15">
-        <v>8.621191205968554</v>
+        <v>13.05063374293555</v>
       </c>
       <c r="R15">
-        <v>8.621191205968554</v>
+        <v>117.45570368642</v>
       </c>
       <c r="S15">
-        <v>4.701509954988794E-05</v>
+        <v>6.394945887730736E-05</v>
       </c>
       <c r="T15">
-        <v>4.701509954988794E-05</v>
+        <v>6.394945887730738E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.21520509437791</v>
+        <v>1.839165666666666</v>
       </c>
       <c r="H16">
-        <v>1.21520509437791</v>
+        <v>5.517497</v>
       </c>
       <c r="I16">
-        <v>0.0007030776179672626</v>
+        <v>0.001031605984211079</v>
       </c>
       <c r="J16">
-        <v>0.0007030776179672626</v>
+        <v>0.00103160598421108</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.7615038984025</v>
+        <v>27.34521433333333</v>
       </c>
       <c r="N16">
-        <v>23.7615038984025</v>
+        <v>82.03564300000001</v>
       </c>
       <c r="O16">
-        <v>0.2239702402676228</v>
+        <v>0.238887597223811</v>
       </c>
       <c r="P16">
-        <v>0.2239702402676228</v>
+        <v>0.238887597223811</v>
       </c>
       <c r="Q16">
-        <v>28.87510058741929</v>
+        <v>50.29237934950788</v>
       </c>
       <c r="R16">
-        <v>28.87510058741929</v>
+        <v>452.631414145571</v>
       </c>
       <c r="S16">
-        <v>0.0001574684630229157</v>
+        <v>0.0002464378748498895</v>
       </c>
       <c r="T16">
-        <v>0.0001574684630229157</v>
+        <v>0.0002464378748498895</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.21520509437791</v>
+        <v>1.839165666666666</v>
       </c>
       <c r="H17">
-        <v>1.21520509437791</v>
+        <v>5.517497</v>
       </c>
       <c r="I17">
-        <v>0.0007030776179672626</v>
+        <v>0.001031605984211079</v>
       </c>
       <c r="J17">
-        <v>0.0007030776179672626</v>
+        <v>0.00103160598421108</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.7209827432616</v>
+        <v>19.73820233333333</v>
       </c>
       <c r="N17">
-        <v>19.7209827432616</v>
+        <v>59.214607</v>
       </c>
       <c r="O17">
-        <v>0.1858852563460386</v>
+        <v>0.1724327946912327</v>
       </c>
       <c r="P17">
-        <v>0.1858852563460386</v>
+        <v>0.1724327946912327</v>
       </c>
       <c r="Q17">
-        <v>23.96503869575035</v>
+        <v>36.30182405318655</v>
       </c>
       <c r="R17">
-        <v>23.96503869575035</v>
+        <v>326.716416478679</v>
       </c>
       <c r="S17">
-        <v>0.0001306917632470068</v>
+        <v>0.0001778827028777161</v>
       </c>
       <c r="T17">
-        <v>0.0001306917632470068</v>
+        <v>0.0001778827028777161</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.21520509437791</v>
+        <v>1.839165666666666</v>
       </c>
       <c r="H18">
-        <v>1.21520509437791</v>
+        <v>5.517497</v>
       </c>
       <c r="I18">
-        <v>0.0007030776179672626</v>
+        <v>0.001031605984211079</v>
       </c>
       <c r="J18">
-        <v>0.0007030776179672626</v>
+        <v>0.00103160598421108</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>49.0763680599753</v>
+        <v>51.532109</v>
       </c>
       <c r="N18">
-        <v>49.0763680599753</v>
+        <v>154.596327</v>
       </c>
       <c r="O18">
-        <v>0.4625820820454858</v>
+        <v>0.4501841363839443</v>
       </c>
       <c r="P18">
-        <v>0.4625820820454858</v>
+        <v>0.4501841363839443</v>
       </c>
       <c r="Q18">
-        <v>59.63785248004734</v>
+        <v>94.77608560372433</v>
       </c>
       <c r="R18">
-        <v>59.63785248004734</v>
+        <v>852.984770433519</v>
       </c>
       <c r="S18">
-        <v>0.000325231108358877</v>
+        <v>0.0004644126490905738</v>
       </c>
       <c r="T18">
-        <v>0.000325231108358877</v>
+        <v>0.0004644126490905738</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.21520509437791</v>
+        <v>1.839165666666666</v>
       </c>
       <c r="H19">
-        <v>1.21520509437791</v>
+        <v>5.517497</v>
       </c>
       <c r="I19">
-        <v>0.0007030776179672626</v>
+        <v>0.001031605984211079</v>
       </c>
       <c r="J19">
-        <v>0.0007030776179672626</v>
+        <v>0.00103160598421108</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.40605771140451</v>
+        <v>4.005140333333333</v>
       </c>
       <c r="N19">
-        <v>3.40605771140451</v>
+        <v>12.015421</v>
       </c>
       <c r="O19">
-        <v>0.03210468357770675</v>
+        <v>0.03498887736300817</v>
       </c>
       <c r="P19">
-        <v>0.03210468357770675</v>
+        <v>0.03498887736300817</v>
       </c>
       <c r="Q19">
-        <v>4.139058682643926</v>
+        <v>7.366116591248555</v>
       </c>
       <c r="R19">
-        <v>4.139058682643926</v>
+        <v>66.295049321237</v>
       </c>
       <c r="S19">
-        <v>2.257208445540675E-05</v>
+        <v>3.609473526850681E-05</v>
       </c>
       <c r="T19">
-        <v>2.257208445540675E-05</v>
+        <v>3.609473526850682E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.08207258961548</v>
+        <v>8.497059666666667</v>
       </c>
       <c r="H20">
-        <v>6.08207258961548</v>
+        <v>25.491179</v>
       </c>
       <c r="I20">
-        <v>0.003518886752857052</v>
+        <v>0.004766083751562676</v>
       </c>
       <c r="J20">
-        <v>0.003518886752857052</v>
+        <v>0.004766083751562675</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.03289190731455</v>
+        <v>4.752338666666668</v>
       </c>
       <c r="N20">
-        <v>3.03289190731455</v>
+        <v>14.257016</v>
       </c>
       <c r="O20">
-        <v>0.02858731215378319</v>
+        <v>0.04151639666945049</v>
       </c>
       <c r="P20">
-        <v>0.02858731215378319</v>
+        <v>0.04151639666945049</v>
       </c>
       <c r="Q20">
-        <v>18.44626873674444</v>
+        <v>40.38090520687378</v>
       </c>
       <c r="R20">
-        <v>18.44626873674444</v>
+        <v>363.428146861864</v>
       </c>
       <c r="S20">
-        <v>0.0001005955140377371</v>
+        <v>0.0001978706235896987</v>
       </c>
       <c r="T20">
-        <v>0.0001005955140377371</v>
+        <v>0.0001978706235896987</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.08207258961548</v>
+        <v>8.497059666666667</v>
       </c>
       <c r="H21">
-        <v>6.08207258961548</v>
+        <v>25.491179</v>
       </c>
       <c r="I21">
-        <v>0.003518886752857052</v>
+        <v>0.004766083751562676</v>
       </c>
       <c r="J21">
-        <v>0.003518886752857052</v>
+        <v>0.004766083751562675</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>7.09443306800975</v>
+        <v>7.095953333333333</v>
       </c>
       <c r="N21">
-        <v>7.09443306800975</v>
+        <v>21.28786</v>
       </c>
       <c r="O21">
-        <v>0.06687042560936295</v>
+        <v>0.06199019766855336</v>
       </c>
       <c r="P21">
-        <v>0.06687042560936295</v>
+        <v>0.06199019766855336</v>
       </c>
       <c r="Q21">
-        <v>43.14885690180376</v>
+        <v>60.29473886521556</v>
       </c>
       <c r="R21">
-        <v>43.14885690180376</v>
+        <v>542.6526497869399</v>
       </c>
       <c r="S21">
-        <v>0.0002353094548347003</v>
+        <v>0.0002954504738642506</v>
       </c>
       <c r="T21">
-        <v>0.0002353094548347003</v>
+        <v>0.0002954504738642506</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.08207258961548</v>
+        <v>8.497059666666667</v>
       </c>
       <c r="H22">
-        <v>6.08207258961548</v>
+        <v>25.491179</v>
       </c>
       <c r="I22">
-        <v>0.003518886752857052</v>
+        <v>0.004766083751562676</v>
       </c>
       <c r="J22">
-        <v>0.003518886752857052</v>
+        <v>0.004766083751562675</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>23.7615038984025</v>
+        <v>27.34521433333333</v>
       </c>
       <c r="N22">
-        <v>23.7615038984025</v>
+        <v>82.03564300000001</v>
       </c>
       <c r="O22">
-        <v>0.2239702402676228</v>
+        <v>0.238887597223811</v>
       </c>
       <c r="P22">
-        <v>0.2239702402676228</v>
+        <v>0.238887597223811</v>
       </c>
       <c r="Q22">
-        <v>144.5191915485152</v>
+        <v>232.3539177881219</v>
       </c>
       <c r="R22">
-        <v>144.5191915485152</v>
+        <v>2091.185260093097</v>
       </c>
       <c r="S22">
-        <v>0.0007881259115119489</v>
+        <v>0.001138558295578254</v>
       </c>
       <c r="T22">
-        <v>0.0007881259115119489</v>
+        <v>0.001138558295578254</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.08207258961548</v>
+        <v>8.497059666666667</v>
       </c>
       <c r="H23">
-        <v>6.08207258961548</v>
+        <v>25.491179</v>
       </c>
       <c r="I23">
-        <v>0.003518886752857052</v>
+        <v>0.004766083751562676</v>
       </c>
       <c r="J23">
-        <v>0.003518886752857052</v>
+        <v>0.004766083751562675</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>19.7209827432616</v>
+        <v>19.73820233333333</v>
       </c>
       <c r="N23">
-        <v>19.7209827432616</v>
+        <v>59.214607</v>
       </c>
       <c r="O23">
-        <v>0.1858852563460386</v>
+        <v>0.1724327946912327</v>
       </c>
       <c r="P23">
-        <v>0.1858852563460386</v>
+        <v>0.1724327946912327</v>
       </c>
       <c r="Q23">
-        <v>119.9444485830713</v>
+        <v>167.7166829390726</v>
       </c>
       <c r="R23">
-        <v>119.9444485830713</v>
+        <v>1509.450146451653</v>
       </c>
       <c r="S23">
-        <v>0.0006541091661075125</v>
+        <v>0.0008218291410144267</v>
       </c>
       <c r="T23">
-        <v>0.0006541091661075125</v>
+        <v>0.0008218291410144266</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.08207258961548</v>
+        <v>8.497059666666667</v>
       </c>
       <c r="H24">
-        <v>6.08207258961548</v>
+        <v>25.491179</v>
       </c>
       <c r="I24">
-        <v>0.003518886752857052</v>
+        <v>0.004766083751562676</v>
       </c>
       <c r="J24">
-        <v>0.003518886752857052</v>
+        <v>0.004766083751562675</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>49.0763680599753</v>
+        <v>51.532109</v>
       </c>
       <c r="N24">
-        <v>49.0763680599753</v>
+        <v>154.596327</v>
       </c>
       <c r="O24">
-        <v>0.4625820820454858</v>
+        <v>0.4501841363839443</v>
       </c>
       <c r="P24">
-        <v>0.4625820820454858</v>
+        <v>0.4501841363839443</v>
       </c>
       <c r="Q24">
-        <v>298.4860329754564</v>
+        <v>437.8714049221703</v>
       </c>
       <c r="R24">
-        <v>298.4860329754564</v>
+        <v>3940.842644299533</v>
       </c>
       <c r="S24">
-        <v>0.001627773960618894</v>
+        <v>0.002145615297630793</v>
       </c>
       <c r="T24">
-        <v>0.001627773960618894</v>
+        <v>0.002145615297630792</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.08207258961548</v>
+        <v>8.497059666666667</v>
       </c>
       <c r="H25">
-        <v>6.08207258961548</v>
+        <v>25.491179</v>
       </c>
       <c r="I25">
-        <v>0.003518886752857052</v>
+        <v>0.004766083751562676</v>
       </c>
       <c r="J25">
-        <v>0.003518886752857052</v>
+        <v>0.004766083751562675</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.40605771140451</v>
+        <v>4.005140333333333</v>
       </c>
       <c r="N25">
-        <v>3.40605771140451</v>
+        <v>12.015421</v>
       </c>
       <c r="O25">
-        <v>0.03210468357770675</v>
+        <v>0.03498887736300817</v>
       </c>
       <c r="P25">
-        <v>0.03210468357770675</v>
+        <v>0.03498887736300817</v>
       </c>
       <c r="Q25">
-        <v>20.7158902451818</v>
+        <v>34.03191638570656</v>
       </c>
       <c r="R25">
-        <v>20.7158902451818</v>
+        <v>306.287247471359</v>
       </c>
       <c r="S25">
-        <v>0.0001129727457462596</v>
+        <v>0.0001667599198852524</v>
       </c>
       <c r="T25">
-        <v>0.0001129727457462596</v>
+        <v>0.0001667599198852524</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.901845975473297</v>
+        <v>1.619322333333334</v>
       </c>
       <c r="H26">
-        <v>0.901845975473297</v>
+        <v>4.857967</v>
       </c>
       <c r="I26">
-        <v>0.0005217783591778975</v>
+        <v>0.0009082937114963446</v>
       </c>
       <c r="J26">
-        <v>0.0005217783591778975</v>
+        <v>0.0009082937114963446</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.03289190731455</v>
+        <v>4.752338666666668</v>
       </c>
       <c r="N26">
-        <v>3.03289190731455</v>
+        <v>14.257016</v>
       </c>
       <c r="O26">
-        <v>0.02858731215378319</v>
+        <v>0.04151639666945049</v>
       </c>
       <c r="P26">
-        <v>0.02858731215378319</v>
+        <v>0.04151639666945049</v>
       </c>
       <c r="Q26">
-        <v>2.735201360657159</v>
+        <v>7.695568138496891</v>
       </c>
       <c r="R26">
-        <v>2.735201360657159</v>
+        <v>69.26011324647202</v>
       </c>
       <c r="S26">
-        <v>1.491624082890736E-05</v>
+        <v>3.770908201884966E-05</v>
       </c>
       <c r="T26">
-        <v>1.491624082890736E-05</v>
+        <v>3.770908201884966E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.901845975473297</v>
+        <v>1.619322333333334</v>
       </c>
       <c r="H27">
-        <v>0.901845975473297</v>
+        <v>4.857967</v>
       </c>
       <c r="I27">
-        <v>0.0005217783591778975</v>
+        <v>0.0009082937114963446</v>
       </c>
       <c r="J27">
-        <v>0.0005217783591778975</v>
+        <v>0.0009082937114963446</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>7.09443306800975</v>
+        <v>7.095953333333333</v>
       </c>
       <c r="N27">
-        <v>7.09443306800975</v>
+        <v>21.28786</v>
       </c>
       <c r="O27">
-        <v>0.06687042560936295</v>
+        <v>0.06199019766855336</v>
       </c>
       <c r="P27">
-        <v>0.06687042560936295</v>
+        <v>0.06199019766855336</v>
       </c>
       <c r="Q27">
-        <v>6.398085910649269</v>
+        <v>11.49063570895778</v>
       </c>
       <c r="R27">
-        <v>6.398085910649269</v>
+        <v>103.41572138062</v>
       </c>
       <c r="S27">
-        <v>3.489154095198105E-05</v>
+        <v>5.630530671676238E-05</v>
       </c>
       <c r="T27">
-        <v>3.489154095198105E-05</v>
+        <v>5.630530671676238E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.901845975473297</v>
+        <v>1.619322333333334</v>
       </c>
       <c r="H28">
-        <v>0.901845975473297</v>
+        <v>4.857967</v>
       </c>
       <c r="I28">
-        <v>0.0005217783591778975</v>
+        <v>0.0009082937114963446</v>
       </c>
       <c r="J28">
-        <v>0.0005217783591778975</v>
+        <v>0.0009082937114963446</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>23.7615038984025</v>
+        <v>27.34521433333333</v>
       </c>
       <c r="N28">
-        <v>23.7615038984025</v>
+        <v>82.03564300000001</v>
       </c>
       <c r="O28">
-        <v>0.2239702402676228</v>
+        <v>0.238887597223811</v>
       </c>
       <c r="P28">
-        <v>0.2239702402676228</v>
+        <v>0.238887597223811</v>
       </c>
       <c r="Q28">
-        <v>21.42921666196735</v>
+        <v>44.28071627975345</v>
       </c>
       <c r="R28">
-        <v>21.42921666196735</v>
+        <v>398.526446517781</v>
       </c>
       <c r="S28">
-        <v>0.0001168628244715197</v>
+        <v>0.0002169801023128591</v>
       </c>
       <c r="T28">
-        <v>0.0001168628244715197</v>
+        <v>0.0002169801023128591</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.901845975473297</v>
+        <v>1.619322333333334</v>
       </c>
       <c r="H29">
-        <v>0.901845975473297</v>
+        <v>4.857967</v>
       </c>
       <c r="I29">
-        <v>0.0005217783591778975</v>
+        <v>0.0009082937114963446</v>
       </c>
       <c r="J29">
-        <v>0.0005217783591778975</v>
+        <v>0.0009082937114963446</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>19.7209827432616</v>
+        <v>19.73820233333333</v>
       </c>
       <c r="N29">
-        <v>19.7209827432616</v>
+        <v>59.214607</v>
       </c>
       <c r="O29">
-        <v>0.1858852563460386</v>
+        <v>0.1724327946912327</v>
       </c>
       <c r="P29">
-        <v>0.1858852563460386</v>
+        <v>0.1724327946912327</v>
       </c>
       <c r="Q29">
-        <v>17.78528891938882</v>
+        <v>31.96251185821878</v>
       </c>
       <c r="R29">
-        <v>17.78528891938882</v>
+        <v>287.662606723969</v>
       </c>
       <c r="S29">
-        <v>9.699090405159885E-05</v>
+        <v>0.0001566196230737869</v>
       </c>
       <c r="T29">
-        <v>9.699090405159885E-05</v>
+        <v>0.0001566196230737869</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.901845975473297</v>
+        <v>1.619322333333334</v>
       </c>
       <c r="H30">
-        <v>0.901845975473297</v>
+        <v>4.857967</v>
       </c>
       <c r="I30">
-        <v>0.0005217783591778975</v>
+        <v>0.0009082937114963446</v>
       </c>
       <c r="J30">
-        <v>0.0005217783591778975</v>
+        <v>0.0009082937114963446</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>49.0763680599753</v>
+        <v>51.532109</v>
       </c>
       <c r="N30">
-        <v>49.0763680599753</v>
+        <v>154.596327</v>
       </c>
       <c r="O30">
-        <v>0.4625820820454858</v>
+        <v>0.4501841363839443</v>
       </c>
       <c r="P30">
-        <v>0.4625820820454858</v>
+        <v>0.4501841363839443</v>
       </c>
       <c r="Q30">
-        <v>44.25932502573498</v>
+        <v>83.44709498746768</v>
       </c>
       <c r="R30">
-        <v>44.25932502573498</v>
+        <v>751.023854887209</v>
       </c>
       <c r="S30">
-        <v>0.0002413653197547891</v>
+        <v>0.0004088994200929494</v>
       </c>
       <c r="T30">
-        <v>0.0002413653197547891</v>
+        <v>0.0004088994200929494</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.901845975473297</v>
+        <v>1.619322333333334</v>
       </c>
       <c r="H31">
-        <v>0.901845975473297</v>
+        <v>4.857967</v>
       </c>
       <c r="I31">
-        <v>0.0005217783591778975</v>
+        <v>0.0009082937114963446</v>
       </c>
       <c r="J31">
-        <v>0.0005217783591778975</v>
+        <v>0.0009082937114963446</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>3.40605771140451</v>
+        <v>4.005140333333333</v>
       </c>
       <c r="N31">
-        <v>3.40605771140451</v>
+        <v>12.015421</v>
       </c>
       <c r="O31">
-        <v>0.03210468357770675</v>
+        <v>0.03498887736300817</v>
       </c>
       <c r="P31">
-        <v>0.03210468357770675</v>
+        <v>0.03498887736300817</v>
       </c>
       <c r="Q31">
-        <v>3.071739439259946</v>
+        <v>6.485613189900779</v>
       </c>
       <c r="R31">
-        <v>3.071739439259946</v>
+        <v>58.370518709107</v>
       </c>
       <c r="S31">
-        <v>1.675152911910142E-05</v>
+        <v>3.178017728113713E-05</v>
       </c>
       <c r="T31">
-        <v>1.675152911910142E-05</v>
+        <v>3.178017728113713E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>176.343096993437</v>
+        <v>196.5440926666667</v>
       </c>
       <c r="H32">
-        <v>176.343096993437</v>
+        <v>589.632278</v>
       </c>
       <c r="I32">
-        <v>0.1020263041627431</v>
+        <v>0.1102435010782627</v>
       </c>
       <c r="J32">
-        <v>0.1020263041627431</v>
+        <v>0.1102435010782627</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.03289190731455</v>
+        <v>4.752338666666668</v>
       </c>
       <c r="N32">
-        <v>3.03289190731455</v>
+        <v>14.257016</v>
       </c>
       <c r="O32">
-        <v>0.02858731215378319</v>
+        <v>0.04151639666945049</v>
       </c>
       <c r="P32">
-        <v>0.02858731215378319</v>
+        <v>0.04151639666945049</v>
       </c>
       <c r="Q32">
-        <v>534.8295517821798</v>
+        <v>934.0440912847166</v>
       </c>
       <c r="R32">
-        <v>534.8295517821798</v>
+        <v>8406.39682156245</v>
       </c>
       <c r="S32">
-        <v>0.002916657804997167</v>
+        <v>0.004576912920994144</v>
       </c>
       <c r="T32">
-        <v>0.002916657804997167</v>
+        <v>0.004576912920994144</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>176.343096993437</v>
+        <v>196.5440926666667</v>
       </c>
       <c r="H33">
-        <v>176.343096993437</v>
+        <v>589.632278</v>
       </c>
       <c r="I33">
-        <v>0.1020263041627431</v>
+        <v>0.1102435010782627</v>
       </c>
       <c r="J33">
-        <v>0.1020263041627431</v>
+        <v>0.1102435010782627</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>7.09443306800975</v>
+        <v>7.095953333333333</v>
       </c>
       <c r="N33">
-        <v>7.09443306800975</v>
+        <v>21.28786</v>
       </c>
       <c r="O33">
-        <v>0.06687042560936295</v>
+        <v>0.06199019766855336</v>
       </c>
       <c r="P33">
-        <v>0.06687042560936295</v>
+        <v>0.06199019766855336</v>
       </c>
       <c r="Q33">
-        <v>1251.05429862549</v>
+        <v>1394.667709505009</v>
       </c>
       <c r="R33">
-        <v>1251.05429862549</v>
+        <v>12552.00938554508</v>
       </c>
       <c r="S33">
-        <v>0.006822542382712952</v>
+        <v>0.006834016423514878</v>
       </c>
       <c r="T33">
-        <v>0.006822542382712952</v>
+        <v>0.006834016423514878</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>176.343096993437</v>
+        <v>196.5440926666667</v>
       </c>
       <c r="H34">
-        <v>176.343096993437</v>
+        <v>589.632278</v>
       </c>
       <c r="I34">
-        <v>0.1020263041627431</v>
+        <v>0.1102435010782627</v>
       </c>
       <c r="J34">
-        <v>0.1020263041627431</v>
+        <v>0.1102435010782627</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>23.7615038984025</v>
+        <v>27.34521433333333</v>
       </c>
       <c r="N34">
-        <v>23.7615038984025</v>
+        <v>82.03564300000001</v>
       </c>
       <c r="O34">
-        <v>0.2239702402676228</v>
+        <v>0.238887597223811</v>
       </c>
       <c r="P34">
-        <v>0.2239702402676228</v>
+        <v>0.238887597223811</v>
       </c>
       <c r="Q34">
-        <v>4190.177186665923</v>
+        <v>5374.540339920529</v>
       </c>
       <c r="R34">
-        <v>4190.177186665923</v>
+        <v>48370.86305928476</v>
       </c>
       <c r="S34">
-        <v>0.02285085585694714</v>
+        <v>0.02633580508212678</v>
       </c>
       <c r="T34">
-        <v>0.02285085585694714</v>
+        <v>0.02633580508212678</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>176.343096993437</v>
+        <v>196.5440926666667</v>
       </c>
       <c r="H35">
-        <v>176.343096993437</v>
+        <v>589.632278</v>
       </c>
       <c r="I35">
-        <v>0.1020263041627431</v>
+        <v>0.1102435010782627</v>
       </c>
       <c r="J35">
-        <v>0.1020263041627431</v>
+        <v>0.1102435010782627</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>19.7209827432616</v>
+        <v>19.73820233333333</v>
       </c>
       <c r="N35">
-        <v>19.7209827432616</v>
+        <v>59.214607</v>
       </c>
       <c r="O35">
-        <v>0.1858852563460386</v>
+        <v>0.1724327946912327</v>
       </c>
       <c r="P35">
-        <v>0.1858852563460386</v>
+        <v>0.1724327946912327</v>
       </c>
       <c r="Q35">
-        <v>3477.659172700878</v>
+        <v>3879.427068476083</v>
       </c>
       <c r="R35">
-        <v>3477.659172700878</v>
+        <v>34914.84361628475</v>
       </c>
       <c r="S35">
-        <v>0.01896518570333041</v>
+        <v>0.01900959498747075</v>
       </c>
       <c r="T35">
-        <v>0.01896518570333041</v>
+        <v>0.01900959498747075</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>176.343096993437</v>
+        <v>196.5440926666667</v>
       </c>
       <c r="H36">
-        <v>176.343096993437</v>
+        <v>589.632278</v>
       </c>
       <c r="I36">
-        <v>0.1020263041627431</v>
+        <v>0.1102435010782627</v>
       </c>
       <c r="J36">
-        <v>0.1020263041627431</v>
+        <v>0.1102435010782627</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>49.0763680599753</v>
+        <v>51.532109</v>
       </c>
       <c r="N36">
-        <v>49.0763680599753</v>
+        <v>154.596327</v>
       </c>
       <c r="O36">
-        <v>0.4625820820454858</v>
+        <v>0.4501841363839443</v>
       </c>
       <c r="P36">
-        <v>0.4625820820454858</v>
+        <v>0.4501841363839443</v>
       </c>
       <c r="Q36">
-        <v>8654.278732885838</v>
+        <v>10128.33160660477</v>
       </c>
       <c r="R36">
-        <v>8654.278732885838</v>
+        <v>91154.98445944292</v>
       </c>
       <c r="S36">
-        <v>0.04719554020300774</v>
+        <v>0.04962987532486011</v>
       </c>
       <c r="T36">
-        <v>0.04719554020300774</v>
+        <v>0.04962987532486011</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>176.343096993437</v>
+        <v>196.5440926666667</v>
       </c>
       <c r="H37">
-        <v>176.343096993437</v>
+        <v>589.632278</v>
       </c>
       <c r="I37">
-        <v>0.1020263041627431</v>
+        <v>0.1102435010782627</v>
       </c>
       <c r="J37">
-        <v>0.1020263041627431</v>
+        <v>0.1102435010782627</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>3.40605771140451</v>
+        <v>4.005140333333333</v>
       </c>
       <c r="N37">
-        <v>3.40605771140451</v>
+        <v>12.015421</v>
       </c>
       <c r="O37">
-        <v>0.03210468357770675</v>
+        <v>0.03498887736300817</v>
       </c>
       <c r="P37">
-        <v>0.03210468357770675</v>
+        <v>0.03498887736300817</v>
       </c>
       <c r="Q37">
-        <v>600.6347653674495</v>
+        <v>787.1866728176709</v>
       </c>
       <c r="R37">
-        <v>600.6347653674495</v>
+        <v>7084.680055359038</v>
       </c>
       <c r="S37">
-        <v>0.003275522211747733</v>
+        <v>0.003857296339295992</v>
       </c>
       <c r="T37">
-        <v>0.003275522211747733</v>
+        <v>0.003857296339295992</v>
       </c>
     </row>
   </sheetData>
